--- a/data/gihun/dataset/충북출산율모델.xlsx
+++ b/data/gihun/dataset/충북출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4189189189189189</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>740</v>
       </c>
       <c r="F81" t="n">
         <v>75.93000000000001</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.00373113159109897</v>
+      </c>
       <c r="H81" t="n">
         <v>59.2</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.5268987341772152</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>632</v>
       </c>
       <c r="F82" t="n">
         <v>76.005</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003727169008709729</v>
+      </c>
       <c r="H82" t="n">
         <v>59.6</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.3984375</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>768</v>
       </c>
       <c r="F83" t="n">
         <v>76.38</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003723206426320489</v>
+      </c>
       <c r="H83" t="n">
         <v>60.2</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3281471004243282</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>707</v>
       </c>
       <c r="F84" t="n">
         <v>76.53</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003719243843931249</v>
+      </c>
       <c r="H84" t="n">
         <v>60.7</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3642611683848797</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>873</v>
       </c>
       <c r="F85" t="n">
         <v>76.605</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003715281261542009</v>
+      </c>
       <c r="H85" t="n">
         <v>60.9</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3677184466019418</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>824</v>
       </c>
       <c r="F86" t="n">
         <v>76.53</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003711318679152769</v>
+      </c>
       <c r="H86" t="n">
         <v>60.9</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4179331306990882</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>658</v>
       </c>
       <c r="F87" t="n">
         <v>76.754</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003707356096763529</v>
+      </c>
       <c r="H87" t="n">
         <v>60.9</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5291338582677165</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>635</v>
       </c>
       <c r="F88" t="n">
         <v>77.28</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003703393514374289</v>
+      </c>
       <c r="H88" t="n">
         <v>60.8</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.6118546845124283</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>523</v>
       </c>
       <c r="F89" t="n">
         <v>77.43000000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003699430931985049</v>
+      </c>
       <c r="H89" t="n">
         <v>60.9</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.3073248407643312</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>628</v>
       </c>
       <c r="F90" t="n">
         <v>77.05500000000001</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003695468349595808</v>
+      </c>
       <c r="H90" t="n">
         <v>61.1</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.2303771661569827</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>981</v>
       </c>
       <c r="F91" t="n">
         <v>76.605</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003691505767206568</v>
+      </c>
       <c r="H91" t="n">
         <v>61.1</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.216338880484115</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1322</v>
       </c>
       <c r="F92" t="n">
         <v>76.83</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003687543184817328</v>
+      </c>
       <c r="H92" t="n">
         <v>61.2</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3125683060109289</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>915</v>
       </c>
       <c r="F93" t="n">
         <v>76.98</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003683580602428088</v>
+      </c>
       <c r="H93" t="n">
         <v>61.3</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3350923482849604</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.833333333333332</v>
+      </c>
       <c r="E94" t="n">
         <v>758</v>
       </c>
       <c r="F94" t="n">
         <v>77.505</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003679668520726293</v>
+      </c>
       <c r="H94" t="n">
         <v>61.1</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4137055837563452</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.06666666666667</v>
+      </c>
       <c r="E95" t="n">
         <v>788</v>
       </c>
       <c r="F95" t="n">
         <v>78.179</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003675756439024498</v>
+      </c>
       <c r="H95" t="n">
         <v>61.2</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3646209386281589</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>10.3</v>
+      </c>
       <c r="E96" t="n">
         <v>831</v>
       </c>
       <c r="F96" t="n">
         <v>78.47799999999999</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003671844357322702</v>
+      </c>
       <c r="H96" t="n">
         <v>61.4</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3269230769230769</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>10.53333333333333</v>
+      </c>
       <c r="E97" t="n">
         <v>884</v>
       </c>
       <c r="F97" t="n">
         <v>78.70399999999999</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003667932275620907</v>
+      </c>
       <c r="H97" t="n">
         <v>60.9</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.396551724137931</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>10.76666666666667</v>
+      </c>
       <c r="E98" t="n">
         <v>754</v>
       </c>
       <c r="F98" t="n">
         <v>78.628</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003664020193919112</v>
+      </c>
       <c r="H98" t="n">
         <v>60.8</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4167832167832168</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>11</v>
+      </c>
       <c r="E99" t="n">
         <v>715</v>
       </c>
       <c r="F99" t="n">
         <v>78.854</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003660108112217317</v>
+      </c>
       <c r="H99" t="n">
         <v>60.8</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4595375722543353</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>11.23333333333333</v>
+      </c>
       <c r="E100" t="n">
         <v>692</v>
       </c>
       <c r="F100" t="n">
         <v>78.929</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003656196030515522</v>
+      </c>
       <c r="H100" t="n">
         <v>60.8</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.4642126789366053</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>11.46666666666667</v>
+      </c>
       <c r="E101" t="n">
         <v>489</v>
       </c>
       <c r="F101" t="n">
         <v>79.45399999999999</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003652283948813727</v>
+      </c>
       <c r="H101" t="n">
         <v>60.9</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.3810068649885583</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>11.7</v>
+      </c>
       <c r="E102" t="n">
         <v>874</v>
       </c>
       <c r="F102" t="n">
         <v>79.529</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003648371867111932</v>
+      </c>
       <c r="H102" t="n">
         <v>61.1</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3534743202416918</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>11.93333333333333</v>
+      </c>
       <c r="E103" t="n">
         <v>993</v>
       </c>
       <c r="F103" t="n">
         <v>79.678</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003644459785410136</v>
+      </c>
       <c r="H103" t="n">
         <v>61.1</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2401402278702892</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>12.16666666666667</v>
+      </c>
       <c r="E104" t="n">
         <v>1141</v>
       </c>
       <c r="F104" t="n">
         <v>80.054</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003640547703708341</v>
+      </c>
       <c r="H104" t="n">
         <v>61.1</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.88</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H273" t="n">
         <v>107.1</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.61</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H274" t="n">
         <v>107.4</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.64</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H275" t="n">
         <v>107.7</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.59</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H276" t="n">
         <v>108</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>108.37</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H277" t="n">
         <v>108.2</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>109.23</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H278" t="n">
         <v>108.5</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.88</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H279" t="n">
         <v>108.5</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.66</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H280" t="n">
         <v>108.4</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>110.14</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H281" t="n">
         <v>108.1</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>110.25</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H282" t="n">
         <v>107.3</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.96</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H283" t="n">
         <v>106.3</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>19.9</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>110.04</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H284" t="n">
         <v>104.2</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.73</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001729104848595257</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
